--- a/data/preprocessed/cv_data.xlsx
+++ b/data/preprocessed/cv_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>AGE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>BMI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>density</t>
         </is>
@@ -452,2214 +457,2828 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2127445785478749</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04639631479891669</v>
+        <v>-0.2613747014600779</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.581536030395437</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01339219469276181</v>
+        <v>-1.897992306730169</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1180257130849638</v>
+        <v>0.01083418451648046</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7152707413048461</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.01184988931489974</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.772233764342161</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.4655313659424973</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.041711725902809</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1.118949752758098</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9401358525043664</v>
+        <v>0.1923067751675196</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3400342004847933</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-1.078001359389754</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.861770291071933</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2378708866857238</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.268979908272127</v>
+        <v>0.1696227013361394</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7821216820866783</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1.79736007248001</v>
+        <v>1.577434445765244</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1180257130849638</v>
+        <v>0.03351825834785985</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.401594595564561</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7152707413048461</v>
+        <v>2.126186038264521</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.104557880388247</v>
+        <v>-0.01184988931489974</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.720323066818789</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C11" t="n">
-        <v>1.19735050998608</v>
+        <v>0.8501449162775357</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.088996704855299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5142602762020584</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4468697688527248</v>
+        <v>-0.533583587436637</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.6026798270790934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1876182704100268</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-1.62241913134287</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2422973775940508</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5645128924777553</v>
+        <v>1.394517248265486</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4468697688527248</v>
+        <v>-1.123369507052513</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.018376432174926</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2975269268985766</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.028682853265969</v>
+      </c>
       <c r="C15" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-0.03453396314627914</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9681919039310073</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4468697688527248</v>
+        <v>-0.7150561780876754</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.217796904061817</v>
+        <v>0.8457656557662102</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.6696880304249159</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.01678643895903</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C18" t="n">
-        <v>1.361772537869961</v>
+        <v>2.188505272328948</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.501887421410182</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3132498110992697</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C19" t="n">
-        <v>1.361772537869961</v>
+        <v>0.8501449162775357</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.01729266622208</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.192670595923969</v>
+        <v>1.028682853265969</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-0.2840587752914581</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>2.877791322407497</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0329284821022</v>
+        <v>0.3284112181557984</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.14200455174843</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.5142602762020584</v>
+        <v>-1.166323516731134</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.268979908272127</v>
+        <v>1.485298983556172</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2078483025479163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.14200455174843</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03851850283061073</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2824477409688443</v>
+        <v>1.507983057387552</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.621475915515069</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.8057924734131954</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.192670595923969</v>
+        <v>2.492020433264038</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.3974791444483575</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2.276882710038211</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.790649665718392</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6112917967366054</v>
+        <v>0.05620233217924005</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.6021802472558024</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1373656541343299</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.104557880388247</v>
+        <v>-0.3747950706169773</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.117291671510424</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0329284821022</v>
+        <v>1.031617506928575</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.01729266622208</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.16754428778612</v>
+        <v>-2.446743899229445</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.5108995136052569</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.088996704855299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6164235900011269</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.597823964039888</v>
+        <v>1.666771574207212</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.557116970714707</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3902868167604903</v>
+        <v>2.492020433264038</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2108183426827972</v>
+        <v>0.4418315873126978</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7169288225525217</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7040844263344387</v>
+        <v>-1.078001359389754</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.56617097372543</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.3067428491228383</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1.916999840376459</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2395289679333985</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-0.7831083995818152</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.34258768402573</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.837351231391204</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.08711303785863207</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C35" t="n">
-        <v>1.361772537869961</v>
+        <v>0.373779365818558</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.112239345996481</v>
+        <v>1.028682853265969</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2824477409688443</v>
+        <v>0.1242545536733798</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3651605086226413</v>
+        <v>-1.897992306730169</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4468697688527248</v>
+        <v>-0.4428472921111171</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1.088996704855299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4154131248983391</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1180257130849638</v>
+        <v>-0.05721803697765934</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.861770291071933</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.4891339680642094</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-1.100685433221134</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.018376432174926</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.6574097965603283</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.117291671510424</v>
+        <v>1.943268840764762</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.4428472921111171</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.018376432174926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.681828856241057</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1641500435198535</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.104557880388247</v>
+        <v>-0.3521109967855979</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1.01729266622208</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.8409022819940889</v>
+        <v>1.943268840764762</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5396623984505582</v>
+        <v>0.8728289901089159</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1.088996704855299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.14200455174843</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.8004891217316172</v>
+      </c>
       <c r="C43" t="n">
-        <v>-1.268979908272127</v>
+        <v>-0.7831083995818152</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6415498981389759</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C44" t="n">
-        <v>1.0329284821022</v>
+        <v>1.780191943364111</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.318302136613212</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C45" t="n">
-        <v>1.361772537869961</v>
+        <v>-0.5562676612680164</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.737058405545583</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3149078923469444</v>
+        <v>-1.166323516731134</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7040844263344387</v>
+        <v>-0.8284765472445748</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6941651803241221</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.6147655087534523</v>
+        <v>-1.71507510923041</v>
       </c>
       <c r="C47" t="n">
-        <v>1.19735050998608</v>
+        <v>-0.7377402519190556</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.14200455174843</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2.199381002685588</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.3752403705666777</v>
+        <v>-0.6175719242318586</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>-0.6026798270790934</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.142417979648272</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C49" t="n">
-        <v>1.361772537869961</v>
+        <v>-0.01184988931489974</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8425603632417645</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7040844263344387</v>
+        <v>-0.6016358089307761</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.377175535883832</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.6147655087534523</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-1.146053580883894</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7821216820866783</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.7655233575805439</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.433401936156008</v>
+        <v>-0.5789517350993967</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.041711725902809</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4907920493118841</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-0.533583587436637</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.2784685752282895</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0.56617097372543</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.2840587752914581</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>2.375265159650526</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.268979908272127</v>
+        <v>-0.3747950706169773</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.2784685752282895</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.4640076599263605</v>
+        <v>0.8457656557662102</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.6112917967366054</v>
+        <v>0.05620233217924005</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.737058405545583</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3651605086226413</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.4468697688527248</v>
+        <v>-1.055317285558373</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1.319960217860887</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7040844263344387</v>
+        <v>1.507983057387552</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.7152707413048461</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.7757138246204859</v>
+        <v>-0.4655313659424973</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-2.276882710038211</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.1373656541343299</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7040844263344387</v>
+        <v>-1.100685433221134</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.666798935876534</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.1175854920677008</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5393865843399064</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.104557880388247</v>
+        <v>0.6459882517951171</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.01678643895903</v>
+        <v>1.577434445765244</v>
       </c>
       <c r="C62" t="n">
-        <v>1.19735050998608</v>
+        <v>0.07888640601062025</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.9414075145454837</v>
+        <v>-1.532157911730652</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7040844263344387</v>
+        <v>-0.6243198827621562</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.14200455174843</v>
+        <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1.772233764342161</v>
+        <v>-1.897992306730169</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.104557880388247</v>
+        <v>1.031617506928575</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.4774683617294525</v>
-      </c>
-      <c r="B65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.211600050765727</v>
+      </c>
       <c r="C65" t="n">
-        <v>1.0329284821022</v>
+        <v>-1.055317285558373</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.01678643895903</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7040844263344387</v>
+        <v>0.9635652854344351</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2629971948235727</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.104557880388247</v>
+        <v>0.4418315873126978</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.067039055234726</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0329284821022</v>
+        <v>-1.168737654715273</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1.043570828344553</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.4882154397738767</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.112239345996481</v>
+        <v>-1.349240714230893</v>
       </c>
       <c r="C70" t="n">
-        <v>1.0329284821022</v>
+        <v>3.118552299415523</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>1.319960217860887</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7040844263344387</v>
+        <v>-0.05721803697765934</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.666798935876534</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5912972818632789</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5396623984505582</v>
+        <v>0.1923067751675196</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.401594595564561</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6666762062768248</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.104557880388247</v>
+        <v>-1.100685433221134</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4656657411740361</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C74" t="n">
-        <v>1.19735050998608</v>
+        <v>-0.9418969164014742</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1.118949752758098</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-0.9418969164014742</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.34258768402573</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6021802472558024</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.740397049442695</v>
+        <v>1.943268840764762</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-1.009949137895614</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-1.088996704855299</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3149078923469444</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C77" t="n">
-        <v>1.19735050998608</v>
+        <v>-0.1025861846404189</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7821216820866783</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>1.043570828344553</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C78" t="n">
-        <v>1.0329284821022</v>
+        <v>0.1015704798419996</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8676866713796125</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-1.032633211726994</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1876182704100268</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1180257130849638</v>
+        <v>1.485298983556172</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.2127445785478749</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C81" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.8284765472445748</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7923077469660675</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3752403705666777</v>
+        <v>-0.9192128425700948</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1.018444520206704</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C83" t="n">
-        <v>1.0329284821022</v>
+        <v>0.464515661144078</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6941651803241221</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1.737058405545583</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.041912747096878</v>
+        <v>-1.349240714230893</v>
       </c>
       <c r="C84" t="n">
-        <v>1.361772537869961</v>
+        <v>1.84824416485825</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.418807369164606</v>
+        <v>-1.71507510923041</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.9645809902328544</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.377175535883832</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6918025144146728</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C86" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.9872650640642345</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.34258768402573</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5142602762020584</v>
+        <v>1.943268840764762</v>
       </c>
       <c r="C87" t="n">
-        <v>1.361772537869961</v>
+        <v>0.1242545536733798</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-1.377175535883832</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.06198672972078405</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7040844263344387</v>
+        <v>1.213090097579614</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.2629971948235727</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.2824477409688443</v>
+        <v>0.4871997349754574</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.117291671510424</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.433401936156008</v>
+        <v>-0.6243198827621562</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3886287355128155</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1180257130849638</v>
+        <v>0.3510952919871786</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6164235900011269</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7040844263344387</v>
+        <v>-0.9645809902328544</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1.319960217860887</v>
+        <v>-1.349240714230893</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.433401936156008</v>
+        <v>-0.2160065537973183</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.681828856241057</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.2629971948235727</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.9192128425700948</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.770575683094486</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C95" t="n">
-        <v>1.19735050998608</v>
+        <v>-0.6016358089307761</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.16754428778612</v>
+        <v>0.8457656557662102</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0329284821022</v>
+        <v>0.305727144324419</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.06235594276317501</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.01173411344508711</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5396623984505582</v>
+        <v>2.233873419991709</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>0.06364481096845875</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-0.9192128425700948</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.318302136613212</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1180257130849638</v>
+        <v>0.3964634396499382</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.018376432174926</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.7152707413048461</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C100" t="n">
-        <v>1.361772537869961</v>
+        <v>-0.2160065537973183</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.06235594276317501</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.532157911730652</v>
+      </c>
       <c r="C101" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-0.05721803697765934</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1.197234101052956</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.740397049442695</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2108183426827972</v>
+        <v>1.326510466736514</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.501887421410182</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.9665338226833318</v>
+        <v>2.126186038264521</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.2824477409688443</v>
+        <v>0.6686723256264966</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.321945986579306</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.03686042158293514</v>
+        <v>2.309103235764279</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.597823964039888</v>
+        <v>0.2376749228302792</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.7152707413048461</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7040844263344387</v>
+        <v>2.097768977003429</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.217796904061817</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8685064542183193</v>
+        <v>-1.191421728546653</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.9916601308211807</v>
+        <v>1.394517248265486</v>
       </c>
       <c r="C107" t="n">
-        <v>1.361772537869961</v>
+        <v>-0.9418969164014742</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.34258768402573</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.557116970714707</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.9916601308211807</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0329284821022</v>
+        <v>0.1923067751675196</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.2078483025479163</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.117291671510424</v>
+        <v>1.577434445765244</v>
       </c>
       <c r="C109" t="n">
-        <v>1.361772537869961</v>
+        <v>0.6913563994578767</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2127445785478749</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7040844263344387</v>
+        <v>-0.3747950706169773</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.2784685752282895</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4154131248983391</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7040844263344387</v>
+        <v>1.076985654591335</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1641500435198535</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3752403705666777</v>
+        <v>1.87092823868963</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.2784685752282895</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3132498110992697</v>
+        <v>-1.897992306730169</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0329284821022</v>
+        <v>2.075084903172049</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.16754428778612</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1180257130849638</v>
+        <v>-0.7150561780876754</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.377175535883832</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.217796904061817</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C115" t="n">
-        <v>1.361772537869961</v>
+        <v>-0.2840587752914581</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.4774683617294525</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.06198672972078405</v>
+        <v>0.8457656557662102</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7040844263344387</v>
+        <v>0.3284112181557984</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3400342004847933</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.104557880388247</v>
+        <v>0.1015704798419996</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.4640076599263605</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-0.7604243257504358</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6021802472558024</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>2.500896700339769</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.3067428491228383</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.03686042158293514</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0329284821022</v>
+        <v>2.778291191944825</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1.922991613169253</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.433401936156008</v>
+        <v>-1.146053580883894</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.221653160733685</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7671814388282187</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.104557880388247</v>
+        <v>-0.533583587436637</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.6026798270790934</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>1.018444520206704</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-0.6243198827621562</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.2078483025479163</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>2.249633618961283</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C124" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.2840587752914581</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.2422973775940508</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6918025144146728</v>
+        <v>1.028682853265969</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.4882154397738767</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.018376432174926</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.519312601716001</v>
+        <v>-1.166323516731134</v>
       </c>
       <c r="C126" t="n">
-        <v>1.361772537869961</v>
+        <v>-1.146053580883894</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.08711303785863207</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C127" t="n">
-        <v>1.361772537869961</v>
+        <v>0.6459882517951171</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3902868167604903</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-0.4201632182797377</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.197234101052956</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.5896392006156033</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5396623984505582</v>
+        <v>-0.692372104256296</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.018376432174926</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.2975269268985766</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.5142602762020584</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C130" t="n">
-        <v>1.0329284821022</v>
+        <v>3.005131930258624</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1.377175535883832</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>1.520970682963676</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.104557880388247</v>
+        <v>-0.3974791444483575</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.2784685752282895</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.01173411344508711</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5396623984505582</v>
+        <v>-0.2840587752914581</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.3886287355128155</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.597823964039888</v>
+        <v>1.031617506928575</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.8660285901319379</v>
+        <v>1.028682853265969</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-1.71315542666839</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5142602762020584</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-0.4201632182797377</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.14200455174843</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7671814388282187</v>
+        <v>1.394517248265486</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.597823964039888</v>
+        <v>1.417246762062033</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.2784685752282895</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.737058405545583</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.192670595923969</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7040844263344387</v>
+        <v>3.436129333054841</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>2.400391467788375</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.597823964039888</v>
+        <v>0.7594086209520166</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.401594595564561</v>
-      </c>
-      <c r="B139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.06882033173258283</v>
+      </c>
       <c r="C139" t="n">
-        <v>-1.597823964039888</v>
+        <v>0.6233041779637369</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.112239345996481</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.1252702584717991</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.321945986579306</v>
+        <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9430655957931584</v>
+        <v>1.760351643265003</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.433401936156008</v>
+        <v>2.279241567654467</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.041711725902809</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>1.043570828344553</v>
+        <v>1.760351643265003</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.268979908272127</v>
+        <v>0.2376749228302792</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.01678643895903</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C143" t="n">
-        <v>1.361772537869961</v>
+        <v>-1.214105802378033</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0.56617097372543</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C144" t="n">
-        <v>1.0329284821022</v>
+        <v>-1.236789876209413</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.443933677302455</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2108183426827972</v>
+        <v>0.05620233217924005</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>1.44559175855013</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.268979908272127</v>
+        <v>-0.7831083995818152</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.018376432174926</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1876182704100268</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C147" t="n">
-        <v>1.0329284821022</v>
+        <v>-0.8284765472445748</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.6147655087534523</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.6243198827621562</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.34258768402573</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.681828856241057</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6164235900011269</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.6112917967366054</v>
+        <v>0.305727144324419</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>1.144076060895947</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.104557880388247</v>
+        <v>-0.01184988931489974</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.2881235029614208</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.7150561780876754</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>2.626528241029012</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.851160621075955</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.5142602762020584</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C153" t="n">
-        <v>1.361772537869961</v>
+        <v>-0.8057924734131954</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.9414075145454837</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C154" t="n">
-        <v>1.19735050998608</v>
+        <v>-0.9418969164014742</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.1175854920677008</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.368554752888909</v>
+        <v>1.394517248265486</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2108183426827972</v>
+        <v>-0.3521109967855979</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.6574097965603283</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>1.26970760158519</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C156" t="n">
-        <v>1.361772537869961</v>
+        <v>-1.259473950040793</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1.420465450412282</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.9401358525043664</v>
+        <v>0.5779360303009774</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.14200455174843</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1.395339142274433</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.597823964039888</v>
+        <v>1.303826392905133</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9430655957931584</v>
+        <v>1.943268840764762</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.6112917967366054</v>
+        <v>0.7594086209520166</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3383761192371177</v>
+        <v>2.126186038264521</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-0.5789517350993967</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.293175828475363</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C161" t="n">
-        <v>1.19735050998608</v>
+        <v>-0.8284765472445748</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.6021802472558024</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6666762062768248</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.9401358525043664</v>
+        <v>-0.2386906276286985</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.3699539284733182</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-1.737058405545583</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.8157759738562409</v>
+        <v>1.394517248265486</v>
       </c>
       <c r="C163" t="n">
-        <v>1.19735050998608</v>
+        <v>2.506082305968266</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.3132498110992697</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C164" t="n">
-        <v>0.04639631479891669</v>
+        <v>-1.327526171534933</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-1.737058405545583</v>
+        <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.142417979648272</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C165" t="n">
-        <v>1.19735050998608</v>
+        <v>-0.2613747014600779</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2422973775940508</v>
+        <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1641500435198535</v>
+        <v>0.2970140632669344</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.268979908272127</v>
+        <v>-0.8965287687387146</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4154131248983391</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-1.871943943488049</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.14200455174843</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.2378708866857238</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.597823964039888</v>
+        <v>0.2376749228302792</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1.01729266622208</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.293175828475363</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C169" t="n">
-        <v>1.690616593637722</v>
+        <v>0.2830430704930388</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.4405742011536915</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.2975269268985766</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7671814388282187</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.9401358525043664</v>
+        <v>0.4418315873126978</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.318302136613212</v>
+        <v>-1.71507510923041</v>
       </c>
       <c r="C171" t="n">
-        <v>1.526194565753841</v>
+        <v>0.8501449162775357</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.6147655087534523</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C172" t="n">
-        <v>0.04639631479891669</v>
+        <v>-0.1706384061345587</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.5142602762020584</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3752403705666777</v>
+        <v>-0.3067428491228383</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.34258768402573</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.9916601308211807</v>
+        <v>-0.6175719242318586</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.1180257130849638</v>
+        <v>1.258458245242374</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.2629971948235727</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3752403705666777</v>
+        <v>-1.009949137895614</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.6901444331669981</v>
+        <v>1.028682853265969</v>
       </c>
       <c r="C176" t="n">
-        <v>1.19735050998608</v>
+        <v>1.530667131218932</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.837351231391204</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.6901444331669981</v>
+        <v>1.394517248265486</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5396623984505582</v>
+        <v>0.03351825834785985</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-1.197234101052956</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>0.56617097372543</v>
+        <v>1.028682853265969</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7040844263344387</v>
+        <v>0.3284112181557984</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.3699539284733182</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>1.847612688755706</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C179" t="n">
-        <v>0.8685064542183193</v>
+        <v>-0.01184988931489974</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>0.7671814388282187</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2108183426827972</v>
+        <v>-0.3294269229542177</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-1.377175535883832</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4405394330361872</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7040844263344387</v>
+        <v>-1.055317285558373</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-1.088996704855299</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-1.557116970714707</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.740397049442695</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7040844263344387</v>
+        <v>-0.1706384061345587</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-0.9268910789298973</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.501887421410182</v>
+        <v>0</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.6398918168913011</v>
+        <v>-1.71507510923041</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.597823964039888</v>
+        <v>-0.1706384061345587</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1.916999840376459</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.242923212199666</v>
+        <v>-0.06882033173258283</v>
       </c>
       <c r="C184" t="n">
-        <v>1.361772537869961</v>
+        <v>1.213090097579614</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.4222388124249266</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.8911548982697868</v>
+        <v>-1.71507510923041</v>
       </c>
       <c r="C185" t="n">
-        <v>1.361772537869961</v>
+        <v>-0.7377402519190556</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>1.219454985309493</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.1180257130849638</v>
+        <v>-1.100685433221134</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3699539284733182</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.921333531921577</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C187" t="n">
-        <v>1.0329284821022</v>
+        <v>0.4871997349754574</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.180482058100328</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>1.144076060895947</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C188" t="n">
-        <v>0.04639631479891669</v>
+        <v>-0.6696880304249159</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.666798935876534</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.06235594276317501</v>
+        <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.8157759738562409</v>
+        <v>-0.4346547267321</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-1.123369507052513</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.666798935876534</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.501887421410182</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.740397049442695</v>
+        <v>-1.532157911730652</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.1180257130849638</v>
+        <v>1.303826392905133</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>2.47577039220192</v>
+        <v>-1.349240714230893</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.7757138246204859</v>
+        <v>-0.8284765472445748</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5320595543987201</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.1175854920677008</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.9414075145454837</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1180257130849638</v>
+        <v>-0.533583587436637</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4405394330361872</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.6112917967366054</v>
+        <v>-1.531682836017351</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.3699539284733182</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.6574097965603283</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>1.319960217860887</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C194" t="n">
-        <v>-1.433401936156008</v>
+        <v>2.211189346160328</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.7647854530044954</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.041711725902809</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0.3902868167604903</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.433401936156008</v>
+        <v>1.303826392905133</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.1163629493028876</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.6574097965603283</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.112239345996481</v>
+        <v>1.394517248265486</v>
       </c>
       <c r="C196" t="n">
-        <v>1.0329284821022</v>
+        <v>0.01083418451648046</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.2975269268985766</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.8409022819940889</v>
+        <v>0.6628484582664516</v>
       </c>
       <c r="C197" t="n">
-        <v>1.0329284821022</v>
+        <v>0.9635652854344351</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.2078483025479163</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.4774683617294525</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1.319960217860887</v>
+        <v>1.211600050765727</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.104557880388247</v>
+        <v>-0.7377402519190556</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.6650181250291491</v>
+        <v>-0.8004891217316172</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7040844263344387</v>
+        <v>1.122353802254094</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-1.251102330780701</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.06235594276317501</v>
+        <v>1</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2395289679333985</v>
+        <v>0.1140968657671758</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.2824477409688443</v>
+        <v>-0.1933224799659389</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.504693309951132</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9620631169175541</v>
+        <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8676866713796125</v>
+        <v>-0.9834063192313758</v>
       </c>
       <c r="C201" t="n">
-        <v>-1.597823964039888</v>
+        <v>0.8047767686147761</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-1.413207956706103</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.14200455174843</v>
+        <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>0.7671814388282187</v>
+        <v>-0.2517375292323414</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.9401358525043664</v>
+        <v>0.7820926947833959</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.04574267662251432</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.7821216820866783</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.6398918168913011</v>
+        <v>0.479931260766693</v>
       </c>
       <c r="C203" t="n">
-        <v>1.526194565753841</v>
+        <v>-0.1479543323031785</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.856270806249524</v>
       </c>
     </row>
   </sheetData>
